--- a/sample.xlsx
+++ b/sample.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -34,10 +34,22 @@
     <t>Average</t>
   </si>
   <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
     <t>Joe</t>
   </si>
   <si>
+    <t>J</t>
+  </si>
+  <si>
     <t>Mary</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -51,6 +63,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -132,14 +145,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+      <selection activeCell="I3" activeCellId="0" pane="topLeft" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1">
@@ -158,13 +171,19 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="2">
       <c r="A2" s="1" t="n">
         <v>42209</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>32</v>
@@ -175,6 +194,13 @@
       <c r="E2" s="0" t="n">
         <f aca="false">D2/C2</f>
         <v>6.2540625</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">C2*C2</f>
+        <v>1024</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="3">
@@ -182,7 +208,7 @@
         <v>41685</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>7</v>
@@ -193,6 +219,13 @@
       <c r="E3" s="0" t="n">
         <f aca="false">D3/C3</f>
         <v>0.142857142857143</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">C3*C3</f>
+        <v>49</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -213,17 +246,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6745098039216"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
@@ -238,17 +271,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6745098039216"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -50,15 +50,19 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Ken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="DD/MM/YY" numFmtId="165"/>
+    <numFmt formatCode="DD/MM/YY" numFmtId="166"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -125,9 +129,10 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -145,10 +150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I3" activeCellId="0" pane="topLeft" sqref="I3"/>
+      <selection activeCell="G4" activeCellId="0" pane="topLeft" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -220,12 +225,29 @@
         <f aca="false">D3/C3</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">C3*C3</f>
-        <v>49</v>
-      </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="5">
+      <c r="A5" s="2" t="n">
+        <v>42037</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">D5/C5</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
